--- a/data/scenarii.xlsx
+++ b/data/scenarii.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F875AA26-07E8-4DE0-AACC-2BDF599558D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4B93F-76A1-4228-B03C-774F2D3A4862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1590" windowWidth="27150" windowHeight="18170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRA" sheetId="1" r:id="rId1"/>
     <sheet name="DEU" sheetId="2" r:id="rId2"/>
     <sheet name="ITA" sheetId="3" r:id="rId3"/>
-    <sheet name="NLD" sheetId="15" r:id="rId4"/>
-    <sheet name="GRC" sheetId="5" r:id="rId5"/>
-    <sheet name="BEL" sheetId="6" r:id="rId6"/>
-    <sheet name="DNK" sheetId="7" r:id="rId7"/>
-    <sheet name="IRL" sheetId="8" r:id="rId8"/>
-    <sheet name="LUX" sheetId="4" r:id="rId9"/>
-    <sheet name="PRT" sheetId="11" r:id="rId10"/>
-    <sheet name="USA" sheetId="12" r:id="rId11"/>
-    <sheet name="JPN" sheetId="13" r:id="rId12"/>
-    <sheet name="AUT" sheetId="9" r:id="rId13"/>
-    <sheet name="POL" sheetId="10" r:id="rId14"/>
-    <sheet name="GBR" sheetId="14" r:id="rId15"/>
+    <sheet name="ESP" sheetId="16" r:id="rId4"/>
+    <sheet name="NLD" sheetId="15" r:id="rId5"/>
+    <sheet name="POL" sheetId="10" r:id="rId6"/>
+    <sheet name="BEL" sheetId="6" r:id="rId7"/>
+    <sheet name="AUT" sheetId="9" r:id="rId8"/>
+    <sheet name="IRL" sheetId="8" r:id="rId9"/>
+    <sheet name="DNK" sheetId="7" r:id="rId10"/>
+    <sheet name="PRT" sheetId="11" r:id="rId11"/>
+    <sheet name="GRC" sheetId="5" r:id="rId12"/>
+    <sheet name="LUX" sheetId="4" r:id="rId13"/>
+    <sheet name="USA" sheetId="12" r:id="rId14"/>
+    <sheet name="JPN" sheetId="13" r:id="rId15"/>
+    <sheet name="GBR" sheetId="14" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
   <si>
     <t>uuid</t>
   </si>
@@ -68,51 +69,9 @@
     <t>Initial set, based on European Commission forecasts</t>
   </si>
   <si>
-    <t>vcqrp</t>
-  </si>
-  <si>
     <t>AMECO 5/2021</t>
   </si>
   <si>
-    <t>fcxey</t>
-  </si>
-  <si>
-    <t>eukys</t>
-  </si>
-  <si>
-    <t>eaghp</t>
-  </si>
-  <si>
-    <t>hphoh</t>
-  </si>
-  <si>
-    <t>projp</t>
-  </si>
-  <si>
-    <t>rdwss</t>
-  </si>
-  <si>
-    <t>kxpeq</t>
-  </si>
-  <si>
-    <t>rqbmv</t>
-  </si>
-  <si>
-    <t>xjtyo</t>
-  </si>
-  <si>
-    <t>iczbg</t>
-  </si>
-  <si>
-    <t>vacsq</t>
-  </si>
-  <si>
-    <t>ovjcv</t>
-  </si>
-  <si>
-    <t>tsqcr</t>
-  </si>
-  <si>
     <t>qbnug</t>
   </si>
   <si>
@@ -141,6 +100,51 @@
   </si>
   <si>
     <t>Back to public debt and spending before COVID</t>
+  </si>
+  <si>
+    <t>rqhwu</t>
+  </si>
+  <si>
+    <t>juurm</t>
+  </si>
+  <si>
+    <t>qjbcm</t>
+  </si>
+  <si>
+    <t>wuwvv</t>
+  </si>
+  <si>
+    <t>wpdcz</t>
+  </si>
+  <si>
+    <t>wfeym</t>
+  </si>
+  <si>
+    <t>cvvuj</t>
+  </si>
+  <si>
+    <t>ptniz</t>
+  </si>
+  <si>
+    <t>aaohy</t>
+  </si>
+  <si>
+    <t>wfgaz</t>
+  </si>
+  <si>
+    <t>xykrn</t>
+  </si>
+  <si>
+    <t>wmwvk</t>
+  </si>
+  <si>
+    <t>tghpv</t>
+  </si>
+  <si>
+    <t>eoskn</t>
+  </si>
+  <si>
+    <t>lyxuo</t>
   </si>
 </sst>
 </file>
@@ -983,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1014,13 +1018,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1031,36 +1035,36 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1069,158 +1073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13283DD7-27A0-4D19-B33A-600AB5B0D155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C15C4-07DF-407E-8F59-1D4C7A55EDB4}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72E06D-3DEE-4FC1-95DA-29C23C17FBAE}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A10-3FE9-4834-B0EC-72C27DE3B00B}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D0241-E092-4799-80C3-409CD033789F}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1250,13 +1107,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1270,12 +1127,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3E44A-9780-40C0-9477-5A4C4837F8E7}">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13283DD7-27A0-4D19-B33A-600AB5B0D155}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239248C3-9AB3-4018-A2C0-4AD74874802B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1305,13 +1211,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1325,12 +1231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9430F0-D9E5-4E2F-8DAE-F82331EFFDF6}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F69E48-2E92-42D5-9A2F-9E71ACD45300}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,13 +1266,166 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72E06D-3DEE-4FC1-95DA-29C23C17FBAE}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A10-3FE9-4834-B0EC-72C27DE3B00B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9430F0-D9E5-4E2F-8DAE-F82331EFFDF6}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1415,13 +1474,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1440,6 +1499,61 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB0499-4FEF-41AA-A647-DB9A731DB774}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1470,13 +1584,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1490,7 +1604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C9861-4D2D-463C-A771-D1E6EB5E8514}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1525,13 +1639,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1545,8 +1659,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239248C3-9AB3-4018-A2C0-4AD74874802B}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3E44A-9780-40C0-9477-5A4C4837F8E7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1580,13 +1694,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1600,7 +1714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2B5A1-770D-4083-A030-B0FD9626E74C}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1635,13 +1749,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1655,8 +1769,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C15C4-07DF-407E-8F59-1D4C7A55EDB4}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D0241-E092-4799-80C3-409CD033789F}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1690,13 +1804,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1710,7 +1824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1821B17-BE4F-414D-8317-E0D912C315F7}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1745,68 +1859,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F69E48-2E92-42D5-9A2F-9E71ACD45300}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>

--- a/data/scenarii.xlsx
+++ b/data/scenarii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4B93F-76A1-4228-B03C-774F2D3A4862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D92A8F-7C02-4DB1-986E-70ABDD95FB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1590" windowWidth="27150" windowHeight="18170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1090" windowWidth="27260" windowHeight="19160" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRA" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,21 @@
     <sheet name="NLD" sheetId="15" r:id="rId5"/>
     <sheet name="POL" sheetId="10" r:id="rId6"/>
     <sheet name="BEL" sheetId="6" r:id="rId7"/>
-    <sheet name="AUT" sheetId="9" r:id="rId8"/>
-    <sheet name="IRL" sheetId="8" r:id="rId9"/>
+    <sheet name="IRL" sheetId="8" r:id="rId8"/>
+    <sheet name="AUT" sheetId="9" r:id="rId9"/>
     <sheet name="DNK" sheetId="7" r:id="rId10"/>
     <sheet name="PRT" sheetId="11" r:id="rId11"/>
     <sheet name="GRC" sheetId="5" r:id="rId12"/>
-    <sheet name="LUX" sheetId="4" r:id="rId13"/>
-    <sheet name="USA" sheetId="12" r:id="rId14"/>
-    <sheet name="JPN" sheetId="13" r:id="rId15"/>
-    <sheet name="GBR" sheetId="14" r:id="rId16"/>
+    <sheet name="SVK" sheetId="17" r:id="rId13"/>
+    <sheet name="LUX" sheetId="4" r:id="rId14"/>
+    <sheet name="LTU" sheetId="22" r:id="rId15"/>
+    <sheet name="LVA" sheetId="18" r:id="rId16"/>
+    <sheet name="EST" sheetId="19" r:id="rId17"/>
+    <sheet name="CYP" sheetId="20" r:id="rId18"/>
+    <sheet name="MLT" sheetId="21" r:id="rId19"/>
+    <sheet name="USA" sheetId="12" r:id="rId20"/>
+    <sheet name="JPN" sheetId="13" r:id="rId21"/>
+    <sheet name="GBR" sheetId="14" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="50">
   <si>
     <t>uuid</t>
   </si>
@@ -145,6 +151,57 @@
   </si>
   <si>
     <t>lyxuo</t>
+  </si>
+  <si>
+    <t>mctbe</t>
+  </si>
+  <si>
+    <t>AMECO 11/2021</t>
+  </si>
+  <si>
+    <t>tzvlv</t>
+  </si>
+  <si>
+    <t>ulujh</t>
+  </si>
+  <si>
+    <t>ffwhh</t>
+  </si>
+  <si>
+    <t>bdvfs</t>
+  </si>
+  <si>
+    <t>yuvaw</t>
+  </si>
+  <si>
+    <t>otbxi</t>
+  </si>
+  <si>
+    <t>wccqa</t>
+  </si>
+  <si>
+    <t>gysft</t>
+  </si>
+  <si>
+    <t>zulrj</t>
+  </si>
+  <si>
+    <t>czwaj</t>
+  </si>
+  <si>
+    <t>zagoo</t>
+  </si>
+  <si>
+    <t>wrsdk</t>
+  </si>
+  <si>
+    <t>rnjyw</t>
+  </si>
+  <si>
+    <t>mhjxu</t>
+  </si>
+  <si>
+    <t>hwrza</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1042,1103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C15C4-07DF-407E-8F59-1D4C7A55EDB4}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13283DD7-27A0-4D19-B33A-600AB5B0D155}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239248C3-9AB3-4018-A2C0-4AD74874802B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D52A4-1685-4E3C-B6DA-96BC01403291}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F69E48-2E92-42D5-9A2F-9E71ACD45300}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E8CBE-B6C0-4091-86BB-8E96D05CFA22}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D647ABEE-88A3-4EA0-8937-CEB5CD4F31FB}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544A83E-00B4-441F-9140-47E701F82A04}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF458966-0ECD-4A8B-81DF-F27B1C48937C}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADED554-E5E2-496E-83F1-7CCF4934AC70}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119AB992-B947-4DC9-B1F5-172A405418BF}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72E06D-3DEE-4FC1-95DA-29C23C17FBAE}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A10-3FE9-4834-B0EC-72C27DE3B00B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9430F0-D9E5-4E2F-8DAE-F82331EFFDF6}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2FFE1E-0752-409C-AF0D-8F104012A75B}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1018,13 +2171,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1035,36 +2188,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1072,9 +2208,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C15C4-07DF-407E-8F59-1D4C7A55EDB4}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB0499-4FEF-41AA-A647-DB9A731DB774}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1107,18 +2243,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1127,61 +2280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13283DD7-27A0-4D19-B33A-600AB5B0D155}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C9861-4D2D-463C-A771-D1E6EB5E8514}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239248C3-9AB3-4018-A2C0-4AD74874802B}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1211,18 +2315,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1231,12 +2352,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F69E48-2E92-42D5-9A2F-9E71ACD45300}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3E44A-9780-40C0-9477-5A4C4837F8E7}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1266,18 +2387,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1286,110 +2424,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72E06D-3DEE-4FC1-95DA-29C23C17FBAE}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2B5A1-770D-4083-A030-B0FD9626E74C}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A10-3FE9-4834-B0EC-72C27DE3B00B}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9430F0-D9E5-4E2F-8DAE-F82331EFFDF6}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1419,18 +2459,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1439,12 +2496,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119AB992-B947-4DC9-B1F5-172A405418BF}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1821B17-BE4F-414D-8317-E0D912C315F7}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,18 +2531,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1494,12 +2568,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2FFE1E-0752-409C-AF0D-8F104012A75B}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D0241-E092-4799-80C3-409CD033789F}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1529,13 +2603,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1544,333 +2618,20 @@
         <v>6</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB0499-4FEF-41AA-A647-DB9A731DB774}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C9861-4D2D-463C-A771-D1E6EB5E8514}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3E44A-9780-40C0-9477-5A4C4837F8E7}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2B5A1-770D-4083-A030-B0FD9626E74C}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D0241-E092-4799-80C3-409CD033789F}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1821B17-BE4F-414D-8317-E0D912C315F7}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/scenarii.xlsx
+++ b/data/scenarii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F4B93F-76A1-4228-B03C-774F2D3A4862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111FF9B7-7842-4FE2-9D57-FCE16CDE543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1590" windowWidth="27150" windowHeight="18170" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="2130" windowWidth="31090" windowHeight="7680" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRA" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,22 @@
     <sheet name="NLD" sheetId="15" r:id="rId5"/>
     <sheet name="POL" sheetId="10" r:id="rId6"/>
     <sheet name="BEL" sheetId="6" r:id="rId7"/>
-    <sheet name="AUT" sheetId="9" r:id="rId8"/>
-    <sheet name="IRL" sheetId="8" r:id="rId9"/>
+    <sheet name="IRL" sheetId="8" r:id="rId8"/>
+    <sheet name="AUT" sheetId="9" r:id="rId9"/>
     <sheet name="DNK" sheetId="7" r:id="rId10"/>
     <sheet name="PRT" sheetId="11" r:id="rId11"/>
     <sheet name="GRC" sheetId="5" r:id="rId12"/>
-    <sheet name="LUX" sheetId="4" r:id="rId13"/>
-    <sheet name="USA" sheetId="12" r:id="rId14"/>
-    <sheet name="JPN" sheetId="13" r:id="rId15"/>
-    <sheet name="GBR" sheetId="14" r:id="rId16"/>
+    <sheet name="SVK" sheetId="17" r:id="rId13"/>
+    <sheet name="LUX" sheetId="4" r:id="rId14"/>
+    <sheet name="LTU" sheetId="22" r:id="rId15"/>
+    <sheet name="LVA" sheetId="18" r:id="rId16"/>
+    <sheet name="SVN" sheetId="23" r:id="rId17"/>
+    <sheet name="EST" sheetId="19" r:id="rId18"/>
+    <sheet name="CYP" sheetId="20" r:id="rId19"/>
+    <sheet name="MLT" sheetId="21" r:id="rId20"/>
+    <sheet name="USA" sheetId="12" r:id="rId21"/>
+    <sheet name="JPN" sheetId="13" r:id="rId22"/>
+    <sheet name="GBR" sheetId="14" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="57">
   <si>
     <t>uuid</t>
   </si>
@@ -145,6 +152,78 @@
   </si>
   <si>
     <t>lyxuo</t>
+  </si>
+  <si>
+    <t>mctbe</t>
+  </si>
+  <si>
+    <t>AMECO 11/2021</t>
+  </si>
+  <si>
+    <t>ulujh</t>
+  </si>
+  <si>
+    <t>ffwhh</t>
+  </si>
+  <si>
+    <t>bdvfs</t>
+  </si>
+  <si>
+    <t>yuvaw</t>
+  </si>
+  <si>
+    <t>otbxi</t>
+  </si>
+  <si>
+    <t>wccqa</t>
+  </si>
+  <si>
+    <t>gysft</t>
+  </si>
+  <si>
+    <t>zulrj</t>
+  </si>
+  <si>
+    <t>wrsdk</t>
+  </si>
+  <si>
+    <t>rnjyw</t>
+  </si>
+  <si>
+    <t>mhjxu</t>
+  </si>
+  <si>
+    <t>hwrza</t>
+  </si>
+  <si>
+    <t>kmekf</t>
+  </si>
+  <si>
+    <t>yehdw</t>
+  </si>
+  <si>
+    <t>lyobn</t>
+  </si>
+  <si>
+    <t>bpvwt</t>
+  </si>
+  <si>
+    <t>wyaod</t>
+  </si>
+  <si>
+    <t>xpglx</t>
+  </si>
+  <si>
+    <t>hnrvx</t>
+  </si>
+  <si>
+    <t>tfvbc</t>
+  </si>
+  <si>
+    <t>fpihc</t>
+  </si>
+  <si>
+    <t>eytxp</t>
   </si>
 </sst>
 </file>
@@ -628,8 +707,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -985,7 +1067,378 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C15C4-07DF-407E-8F59-1D4C7A55EDB4}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13283DD7-27A0-4D19-B33A-600AB5B0D155}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239248C3-9AB3-4018-A2C0-4AD74874802B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D52A4-1685-4E3C-B6DA-96BC01403291}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F69E48-2E92-42D5-9A2F-9E71ACD45300}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1018,13 +1471,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1035,36 +1488,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1072,8 +1508,355 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C15C4-07DF-407E-8F59-1D4C7A55EDB4}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E8CBE-B6C0-4091-86BB-8E96D05CFA22}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D647ABEE-88A3-4EA0-8937-CEB5CD4F31FB}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F781D0-AB61-4431-A25D-1EF9A7E17864}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544A83E-00B4-441F-9140-47E701F82A04}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF458966-0ECD-4A8B-81DF-F27B1C48937C}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119AB992-B947-4DC9-B1F5-172A405418BF}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADED554-E5E2-496E-83F1-7CCF4934AC70}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1107,13 +1890,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1127,12 +1910,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13283DD7-27A0-4D19-B33A-600AB5B0D155}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72E06D-3DEE-4FC1-95DA-29C23C17FBAE}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1156,18 +1939,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1176,9 +1976,147 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239248C3-9AB3-4018-A2C0-4AD74874802B}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A10-3FE9-4834-B0EC-72C27DE3B00B}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9430F0-D9E5-4E2F-8DAE-F82331EFFDF6}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2FFE1E-0752-409C-AF0D-8F104012A75B}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1211,18 +2149,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1231,9 +2186,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F69E48-2E92-42D5-9A2F-9E71ACD45300}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB0499-4FEF-41AA-A647-DB9A731DB774}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1266,18 +2221,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1286,110 +2258,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72E06D-3DEE-4FC1-95DA-29C23C17FBAE}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C9861-4D2D-463C-A771-D1E6EB5E8514}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A10-3FE9-4834-B0EC-72C27DE3B00B}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9430F0-D9E5-4E2F-8DAE-F82331EFFDF6}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1419,18 +2293,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1439,12 +2330,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119AB992-B947-4DC9-B1F5-172A405418BF}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3E44A-9780-40C0-9477-5A4C4837F8E7}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1474,18 +2365,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1494,12 +2402,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2FFE1E-0752-409C-AF0D-8F104012A75B}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2B5A1-770D-4083-A030-B0FD9626E74C}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1529,18 +2437,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1549,12 +2474,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB0499-4FEF-41AA-A647-DB9A731DB774}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1821B17-BE4F-414D-8317-E0D912C315F7}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1584,18 +2509,35 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1604,12 +2546,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C9861-4D2D-463C-A771-D1E6EB5E8514}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D0241-E092-4799-80C3-409CD033789F}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1639,13 +2581,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1654,223 +2596,20 @@
         <v>6</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3E44A-9780-40C0-9477-5A4C4837F8E7}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2B5A1-770D-4083-A030-B0FD9626E74C}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D0241-E092-4799-80C3-409CD033789F}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1821B17-BE4F-414D-8317-E0D912C315F7}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/scenarii.xlsx
+++ b/data/scenarii.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatch\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timbe\github\debtwatchr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111FF9B7-7842-4FE2-9D57-FCE16CDE543B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A71E559-27CE-481D-AF94-4CF703D83869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5130" yWindow="2130" windowWidth="31090" windowHeight="7680" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8990" yWindow="2160" windowWidth="28800" windowHeight="15370" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRA" sheetId="1" r:id="rId1"/>
@@ -23,19 +23,20 @@
     <sheet name="IRL" sheetId="8" r:id="rId8"/>
     <sheet name="AUT" sheetId="9" r:id="rId9"/>
     <sheet name="DNK" sheetId="7" r:id="rId10"/>
-    <sheet name="PRT" sheetId="11" r:id="rId11"/>
-    <sheet name="GRC" sheetId="5" r:id="rId12"/>
-    <sheet name="SVK" sheetId="17" r:id="rId13"/>
-    <sheet name="LUX" sheetId="4" r:id="rId14"/>
-    <sheet name="LTU" sheetId="22" r:id="rId15"/>
-    <sheet name="LVA" sheetId="18" r:id="rId16"/>
+    <sheet name="FIN" sheetId="24" r:id="rId11"/>
+    <sheet name="PRT" sheetId="11" r:id="rId12"/>
+    <sheet name="GRC" sheetId="5" r:id="rId13"/>
+    <sheet name="SVK" sheetId="17" r:id="rId14"/>
+    <sheet name="LUX" sheetId="4" r:id="rId15"/>
+    <sheet name="LTU" sheetId="22" r:id="rId16"/>
     <sheet name="SVN" sheetId="23" r:id="rId17"/>
-    <sheet name="EST" sheetId="19" r:id="rId18"/>
-    <sheet name="CYP" sheetId="20" r:id="rId19"/>
-    <sheet name="MLT" sheetId="21" r:id="rId20"/>
-    <sheet name="USA" sheetId="12" r:id="rId21"/>
-    <sheet name="JPN" sheetId="13" r:id="rId22"/>
-    <sheet name="GBR" sheetId="14" r:id="rId23"/>
+    <sheet name="LVA" sheetId="18" r:id="rId18"/>
+    <sheet name="EST" sheetId="19" r:id="rId19"/>
+    <sheet name="CYP" sheetId="20" r:id="rId20"/>
+    <sheet name="MLT" sheetId="21" r:id="rId21"/>
+    <sheet name="USA" sheetId="12" r:id="rId22"/>
+    <sheet name="JPN" sheetId="13" r:id="rId23"/>
+    <sheet name="GBR" sheetId="14" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="82">
   <si>
     <t>uuid</t>
   </si>
@@ -224,6 +225,81 @@
   </si>
   <si>
     <t>eytxp</t>
+  </si>
+  <si>
+    <t>AMECO 5/2022</t>
+  </si>
+  <si>
+    <t>xvjmi</t>
+  </si>
+  <si>
+    <t>fbabw</t>
+  </si>
+  <si>
+    <t>kiaik</t>
+  </si>
+  <si>
+    <t>frvjk</t>
+  </si>
+  <si>
+    <t>qnxso</t>
+  </si>
+  <si>
+    <t>egevt</t>
+  </si>
+  <si>
+    <t>ovxvz</t>
+  </si>
+  <si>
+    <t>xwmru</t>
+  </si>
+  <si>
+    <t>aaaua</t>
+  </si>
+  <si>
+    <t>jjthe</t>
+  </si>
+  <si>
+    <t>ddhqi</t>
+  </si>
+  <si>
+    <t>kpvpz</t>
+  </si>
+  <si>
+    <t>ciryk</t>
+  </si>
+  <si>
+    <t>ybbiv</t>
+  </si>
+  <si>
+    <t>afckt</t>
+  </si>
+  <si>
+    <t>wfbbf</t>
+  </si>
+  <si>
+    <t>decje</t>
+  </si>
+  <si>
+    <t>nmiuu</t>
+  </si>
+  <si>
+    <t>wjsiy</t>
+  </si>
+  <si>
+    <t>wcepw</t>
+  </si>
+  <si>
+    <t>krrrd</t>
+  </si>
+  <si>
+    <t>dizwh</t>
+  </si>
+  <si>
+    <t>lntxo</t>
+  </si>
+  <si>
+    <t>bifvc</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1100,13 +1176,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1117,13 +1193,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1134,35 +1210,52 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1173,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{535C15C4-07DF-407E-8F59-1D4C7A55EDB4}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1206,13 +1299,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1223,18 +1316,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1244,11 +1354,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13283DD7-27A0-4D19-B33A-600AB5B0D155}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A456381-C76C-4B85-BCC2-8A28D0CB930F}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1272,35 +1382,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1310,11 +1403,94 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13283DD7-27A0-4D19-B33A-600AB5B0D155}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239248C3-9AB3-4018-A2C0-4AD74874802B}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1344,13 +1520,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1361,73 +1537,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D52A4-1685-4E3C-B6DA-96BC01403291}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1437,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F69E48-2E92-42D5-9A2F-9E71ACD45300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D52A4-1685-4E3C-B6DA-96BC01403291}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1471,13 +1609,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1488,13 +1626,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -1509,355 +1647,8 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E8CBE-B6C0-4091-86BB-8E96D05CFA22}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D647ABEE-88A3-4EA0-8937-CEB5CD4F31FB}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F781D0-AB61-4431-A25D-1EF9A7E17864}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544A83E-00B4-441F-9140-47E701F82A04}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF458966-0ECD-4A8B-81DF-F27B1C48937C}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119AB992-B947-4DC9-B1F5-172A405418BF}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADED554-E5E2-496E-83F1-7CCF4934AC70}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F69E48-2E92-42D5-9A2F-9E71ACD45300}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1890,18 +1681,52 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1910,212 +1735,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72E06D-3DEE-4FC1-95DA-29C23C17FBAE}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A10-3FE9-4834-B0EC-72C27DE3B00B}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9430F0-D9E5-4E2F-8DAE-F82331EFFDF6}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2FFE1E-0752-409C-AF0D-8F104012A75B}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576E8CBE-B6C0-4091-86BB-8E96D05CFA22}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2149,13 +1770,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2165,14 +1786,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
+      <c r="A3" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2186,8 +1807,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB0499-4FEF-41AA-A647-DB9A731DB774}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F781D0-AB61-4431-A25D-1EF9A7E17864}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2221,13 +1842,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2238,13 +1859,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2258,12 +1879,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C9861-4D2D-463C-A771-D1E6EB5E8514}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D647ABEE-88A3-4EA0-8937-CEB5CD4F31FB}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2293,13 +1914,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2310,13 +1931,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2330,12 +1951,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3E44A-9780-40C0-9477-5A4C4837F8E7}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7544A83E-00B4-441F-9140-47E701F82A04}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2365,13 +1986,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2382,13 +2003,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2402,12 +2023,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2B5A1-770D-4083-A030-B0FD9626E74C}">
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119AB992-B947-4DC9-B1F5-172A405418BF}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2437,13 +2058,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2454,18 +2075,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2474,12 +2112,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1821B17-BE4F-414D-8317-E0D912C315F7}">
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF458966-0ECD-4A8B-81DF-F27B1C48937C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2509,13 +2147,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2526,13 +2164,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -2546,12 +2184,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D0241-E092-4799-80C3-409CD033789F}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADED554-E5E2-496E-83F1-7CCF4934AC70}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2581,13 +2219,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -2598,18 +2236,896 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A72E06D-3DEE-4FC1-95DA-29C23C17FBAE}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D121A10-3FE9-4834-B0EC-72C27DE3B00B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B9430F0-D9E5-4E2F-8DAE-F82331EFFDF6}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2FFE1E-0752-409C-AF0D-8F104012A75B}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBB0499-4FEF-41AA-A647-DB9A731DB774}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336C9861-4D2D-463C-A771-D1E6EB5E8514}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E3E44A-9780-40C0-9477-5A4C4837F8E7}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA2B5A1-770D-4083-A030-B0FD9626E74C}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1821B17-BE4F-414D-8317-E0D912C315F7}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D0241-E092-4799-80C3-409CD033789F}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
